--- a/saves/settings.xlsx
+++ b/saves/settings.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ФТИ\RotationAndDeposition\saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgiy\Desktop\PHTI\RotationAndDeposition\saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472CF18C-1C2D-4CCB-8F6D-F954E5FAD8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D4A3F-81DB-4F40-BA74-B534D845D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="12922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -526,7 +514,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,19 +817,19 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="254.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="254.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -870,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -893,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -919,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -945,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -971,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -997,7 +985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1023,7 +1011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1049,7 +1037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1075,7 +1063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1101,7 +1089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1127,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1150,7 +1138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1170,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1196,7 +1184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1225,7 +1213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1254,7 +1242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1280,7 +1268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1303,7 +1291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1326,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1346,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1375,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1404,7 +1392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1427,7 +1415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1450,7 +1438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1473,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1496,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1519,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1545,7 +1533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1571,7 +1559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1597,7 +1585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1617,7 +1605,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1637,7 +1625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1663,7 +1651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1689,7 +1677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1715,7 +1703,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1738,7 +1726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1761,7 +1749,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1784,7 +1772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1810,7 +1798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1839,7 +1827,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1865,7 +1853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1891,7 +1879,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1917,7 +1905,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1943,7 +1931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1954,7 +1942,7 @@
         <v>143</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
         <v>69</v>
